--- a/results_human.xlsx
+++ b/results_human.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F67E2D19-EB17-4ECD-B929-8DD202F51DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CD2748-494A-4C93-A7AD-E4AB677493DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en_nl" sheetId="1" r:id="rId1"/>
@@ -121,11 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,13 +463,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>98.161953999999994</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>97.381765999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>92.222222000000002</v>
       </c>
     </row>
@@ -476,13 +477,13 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>93.393315999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>95.857955000000004</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>84.370369999999994</v>
       </c>
     </row>
@@ -490,13 +491,13 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>91.303342000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>94.621082999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>76.407407000000006</v>
       </c>
     </row>
@@ -504,13 +505,13 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>85.479591999999997</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>94.193731999999997</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>70.814814999999996</v>
       </c>
     </row>
@@ -518,13 +519,13 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>82.749360999999993</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>90.982856999999996</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>53.074074000000003</v>
       </c>
     </row>
@@ -538,7 +539,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,13 +568,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>82.042316</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>82.283186000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>78</v>
       </c>
     </row>
@@ -581,13 +582,13 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>80.233333000000002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>81.551111000000006</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>73.780488000000005</v>
       </c>
     </row>
@@ -595,13 +596,13 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>74.142538999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>80.52</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>69.853658999999993</v>
       </c>
     </row>
@@ -609,13 +610,13 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>73.338530000000006</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>81.528889000000007</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>68.268293</v>
       </c>
     </row>
@@ -623,13 +624,13 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>61.265033000000003</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>73.977778000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>56.365853999999999</v>
       </c>
     </row>
@@ -643,7 +644,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B2" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,13 +673,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>89.415053999999998</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>92.735426000000004</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>84.222222000000002</v>
       </c>
     </row>
@@ -686,13 +687,13 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>88.470967999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>90.414798000000005</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>81.194444000000004</v>
       </c>
     </row>
@@ -700,13 +701,13 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>83.118279999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>89.154017999999994</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>78.611110999999994</v>
       </c>
     </row>
@@ -714,13 +715,13 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>82.568669999999997</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>88.827354</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>75.75</v>
       </c>
     </row>
@@ -728,13 +729,13 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>84.556989000000002</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>88.598654999999994</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>77.027777999999998</v>
       </c>
     </row>
@@ -742,13 +743,13 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>78.047312000000005</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>87.565021999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>74.5</v>
       </c>
     </row>
@@ -756,13 +757,13 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>78.634409000000005</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>88.874719999999996</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>75.722222000000002</v>
       </c>
     </row>
@@ -776,7 +777,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,13 +807,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>93.388889000000006</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>96.331378000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>93.208332999999996</v>
       </c>
     </row>
@@ -820,13 +821,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>91.314646999999994</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>95.713864000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>90.041667000000004</v>
       </c>
     </row>
@@ -834,13 +835,13 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>89.603571000000002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>96.049563000000006</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>89.833332999999996</v>
       </c>
     </row>
@@ -848,13 +849,13 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>79.146473999999998</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>90.473372999999995</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>85.625</v>
       </c>
     </row>
@@ -867,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -897,13 +898,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>90.210728000000003</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>89.947896</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>79.621622000000002</v>
       </c>
     </row>
@@ -911,13 +912,13 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>84.178845999999993</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>85.793172999999996</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>73.324324000000004</v>
       </c>
     </row>
@@ -925,13 +926,13 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>81.826335999999998</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>84.617233999999996</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>68.594594999999998</v>
       </c>
     </row>
@@ -939,13 +940,13 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>85.750479999999996</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>83.261043999999998</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>72.270269999999996</v>
       </c>
     </row>
@@ -953,13 +954,13 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>80.527831000000006</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>77.815261000000007</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>67.810811000000001</v>
       </c>
     </row>
@@ -967,13 +968,13 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>70.219652999999994</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>65.535070000000005</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>59.648648999999999</v>
       </c>
     </row>
@@ -983,6 +984,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3fe60cb3-b48c-4f02-bec3-44f4113372e6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100298573FAF315CD4593EA4386B7E901AD" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e92b8999a97fca32caf89b3a8dafcdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3fe60cb3-b48c-4f02-bec3-44f4113372e6" xmlns:ns4="25bd5464-e084-4e3e-b3d5-f9592c4cbd47" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0cb8aa9083c23e081b1440b8afa13c" ns3:_="" ns4:_="">
     <xsd:import namespace="3fe60cb3-b48c-4f02-bec3-44f4113372e6"/>
@@ -1215,24 +1233,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3fe60cb3-b48c-4f02-bec3-44f4113372e6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3325E72-9345-4D6C-B5D4-F9EA75DBAE27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25bd5464-e084-4e3e-b3d5-f9592c4cbd47"/>
+    <ds:schemaRef ds:uri="3fe60cb3-b48c-4f02-bec3-44f4113372e6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58B20C4C-8940-481D-B960-3C06E3C920D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{675917D7-C64B-432C-B2C0-CAB03F3CD552}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1249,29 +1275,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58B20C4C-8940-481D-B960-3C06E3C920D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3325E72-9345-4D6C-B5D4-F9EA75DBAE27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25bd5464-e084-4e3e-b3d5-f9592c4cbd47"/>
-    <ds:schemaRef ds:uri="3fe60cb3-b48c-4f02-bec3-44f4113372e6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/results_human.xlsx
+++ b/results_human.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CD2748-494A-4C93-A7AD-E4AB677493DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED267A70-25ED-4B71-9EA3-A18777F8D49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en_nl" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,7 +467,7 @@
         <v>98.161953999999994</v>
       </c>
       <c r="C2" s="2">
-        <v>97.381765999999999</v>
+        <v>97.4</v>
       </c>
       <c r="D2" s="2">
         <v>92.222222000000002</v>
@@ -481,7 +481,7 @@
         <v>93.393315999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>95.857955000000004</v>
+        <v>95.834286000000006</v>
       </c>
       <c r="D3" s="2">
         <v>84.370369999999994</v>
@@ -495,7 +495,7 @@
         <v>91.303342000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>94.621082999999999</v>
+        <v>94.605714000000006</v>
       </c>
       <c r="D4" s="2">
         <v>76.407407000000006</v>
@@ -506,10 +506,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>85.479591999999997</v>
+        <v>85.624679</v>
       </c>
       <c r="C5" s="2">
-        <v>94.193731999999997</v>
+        <v>94.177143000000001</v>
       </c>
       <c r="D5" s="2">
         <v>70.814814999999996</v>
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>82.749360999999993</v>
+        <v>82.660668000000001</v>
       </c>
       <c r="C6" s="2">
         <v>90.982856999999996</v>
@@ -539,7 +539,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,7 +572,7 @@
         <v>82.042316</v>
       </c>
       <c r="C2" s="2">
-        <v>82.283186000000001</v>
+        <v>82.368888999999996</v>
       </c>
       <c r="D2" s="2">
         <v>78</v>
@@ -583,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>80.233333000000002</v>
+        <v>80.209354000000005</v>
       </c>
       <c r="C3" s="2">
         <v>81.551111000000006</v>
@@ -644,7 +644,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,7 +705,7 @@
         <v>83.118279999999999</v>
       </c>
       <c r="C4" s="2">
-        <v>89.154017999999994</v>
+        <v>89.123317999999998</v>
       </c>
       <c r="D4" s="2">
         <v>78.611110999999994</v>
@@ -716,7 +716,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>82.568669999999997</v>
+        <v>82.550538000000003</v>
       </c>
       <c r="C5" s="2">
         <v>88.827354</v>
@@ -761,7 +761,7 @@
         <v>78.634409000000005</v>
       </c>
       <c r="C8" s="2">
-        <v>88.874719999999996</v>
+        <v>88.849776000000006</v>
       </c>
       <c r="D8" s="2">
         <v>75.722222000000002</v>
@@ -777,7 +777,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>93.388889000000006</v>
+        <v>93.389090999999993</v>
       </c>
       <c r="C2" s="2">
-        <v>96.331378000000001</v>
+        <v>96.313609</v>
       </c>
       <c r="D2" s="2">
         <v>93.208332999999996</v>
@@ -822,10 +822,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>91.314646999999994</v>
+        <v>91.347273000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>95.713864000000001</v>
+        <v>95.710059000000001</v>
       </c>
       <c r="D3" s="2">
         <v>90.041667000000004</v>
@@ -836,10 +836,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>89.603571000000002</v>
+        <v>89.705455000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>96.049563000000006</v>
+        <v>96.147929000000005</v>
       </c>
       <c r="D4" s="2">
         <v>89.833332999999996</v>
@@ -850,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>79.146473999999998</v>
+        <v>79.129091000000003</v>
       </c>
       <c r="C5" s="2">
         <v>90.473372999999995</v>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,10 +899,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>90.210728000000003</v>
+        <v>90.242774999999995</v>
       </c>
       <c r="C2" s="2">
-        <v>89.947896</v>
+        <v>89.995984000000007</v>
       </c>
       <c r="D2" s="2">
         <v>79.621622000000002</v>
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>84.178845999999993</v>
+        <v>84.281310000000005</v>
       </c>
       <c r="C3" s="2">
         <v>85.793172999999996</v>
@@ -927,10 +927,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>81.826335999999998</v>
+        <v>81.832369999999997</v>
       </c>
       <c r="C4" s="2">
-        <v>84.617233999999996</v>
+        <v>84.620481999999996</v>
       </c>
       <c r="D4" s="2">
         <v>68.594594999999998</v>
@@ -941,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>85.750479999999996</v>
+        <v>85.720617000000004</v>
       </c>
       <c r="C5" s="2">
         <v>83.261043999999998</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>80.527831000000006</v>
+        <v>80.587669000000005</v>
       </c>
       <c r="C6" s="2">
         <v>77.815261000000007</v>
@@ -972,7 +972,7 @@
         <v>70.219652999999994</v>
       </c>
       <c r="C7" s="2">
-        <v>65.535070000000005</v>
+        <v>65.532128999999998</v>
       </c>
       <c r="D7" s="2">
         <v>59.648648999999999</v>
@@ -984,23 +984,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3fe60cb3-b48c-4f02-bec3-44f4113372e6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100298573FAF315CD4593EA4386B7E901AD" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e92b8999a97fca32caf89b3a8dafcdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3fe60cb3-b48c-4f02-bec3-44f4113372e6" xmlns:ns4="25bd5464-e084-4e3e-b3d5-f9592c4cbd47" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0cb8aa9083c23e081b1440b8afa13c" ns3:_="" ns4:_="">
     <xsd:import namespace="3fe60cb3-b48c-4f02-bec3-44f4113372e6"/>
@@ -1233,32 +1216,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3fe60cb3-b48c-4f02-bec3-44f4113372e6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3325E72-9345-4D6C-B5D4-F9EA75DBAE27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25bd5464-e084-4e3e-b3d5-f9592c4cbd47"/>
-    <ds:schemaRef ds:uri="3fe60cb3-b48c-4f02-bec3-44f4113372e6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58B20C4C-8940-481D-B960-3C06E3C920D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{675917D7-C64B-432C-B2C0-CAB03F3CD552}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1275,4 +1250,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58B20C4C-8940-481D-B960-3C06E3C920D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3325E72-9345-4D6C-B5D4-F9EA75DBAE27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25bd5464-e084-4e3e-b3d5-f9592c4cbd47"/>
+    <ds:schemaRef ds:uri="3fe60cb3-b48c-4f02-bec3-44f4113372e6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>